--- a/stats/hw2/Navarurh-Kumar-HW2.xlsx
+++ b/stats/hw2/Navarurh-Kumar-HW2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navar\OneDrive\Documents\UTD\assignments\stats\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55991081-BEC6-4672-843A-E003239122ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D33C7930-8DEF-43CD-938C-69BC285CA3DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="216">
   <si>
     <t>Instructions:</t>
   </si>
@@ -859,6 +859,18 @@
   <si>
     <t>The correlation is at a very high 89.66%</t>
   </si>
+  <si>
+    <t>Name : Navarurh Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -14.84 + 26.27*(Gasoline Price)</t>
+  </si>
+  <si>
+    <t>84.10782311 + 0.411947319*(Training hours(T)) - 0.540204198*(Age (A)) - 0.411905469*(Income (I))</t>
+  </si>
+  <si>
+    <t>The regression result is strong as these 3 independent variables explain 87.78% of the variation in Output</t>
+  </si>
 </sst>
 </file>
 
@@ -1498,7 +1510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1844,9 +1856,15 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3959,9 +3977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -5820,7 +5836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15"/>
   <cols>
@@ -9823,7 +9839,7 @@
       <c r="C42" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="154">
         <v>26.270121540497161</v>
       </c>
       <c r="E42" s="29"/>
@@ -9837,7 +9853,7 @@
       <c r="C43" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="154">
         <v>-14.840137289430441</v>
       </c>
       <c r="E43" s="29"/>
@@ -9851,7 +9867,9 @@
       <c r="C44" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="45"/>
+      <c r="D44" s="45" t="s">
+        <v>213</v>
+      </c>
       <c r="E44" s="46"/>
       <c r="F44" s="47"/>
       <c r="G44" s="28"/>
@@ -36756,7 +36774,9 @@
       <c r="C22" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="68" t="s">
+        <v>214</v>
+      </c>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
       <c r="H22" s="69"/>
@@ -37034,7 +37054,9 @@
       <c r="R34" s="60"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="B35" s="68"/>
+      <c r="B35" s="68" t="s">
+        <v>215</v>
+      </c>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
       <c r="E35" s="69"/>
@@ -37264,7 +37286,9 @@
       <c r="R44" s="60"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="B45" s="68"/>
+      <c r="B45" s="155">
+        <v>0.87780000000000002</v>
+      </c>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="69"/>
@@ -37366,7 +37390,10 @@
       <c r="R54" s="60"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="B55" s="68"/>
+      <c r="B55" s="156">
+        <f>B89+B90*50+B91*40+B92*55.45</f>
+        <v>60.256862864998944</v>
+      </c>
       <c r="C55" s="69"/>
       <c r="D55" s="69"/>
       <c r="E55" s="69"/>
@@ -37501,125 +37528,473 @@
       <c r="R72" s="60"/>
     </row>
     <row r="73" spans="1:18">
+      <c r="A73" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
       <c r="P73" s="60"/>
       <c r="Q73" s="60"/>
       <c r="R73" s="60"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
       <c r="P74" s="60"/>
       <c r="Q74" s="60"/>
       <c r="R74" s="60"/>
     </row>
     <row r="75" spans="1:18">
+      <c r="A75" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="113"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
       <c r="P75" s="60"/>
       <c r="Q75" s="60"/>
       <c r="R75" s="60"/>
     </row>
     <row r="76" spans="1:18">
+      <c r="A76" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="110">
+        <v>0.87781308465022323</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
       <c r="P76" s="60"/>
       <c r="Q76" s="60"/>
       <c r="R76" s="60"/>
     </row>
     <row r="77" spans="1:18">
+      <c r="A77" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="110">
+        <v>0.7705558115831399</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
       <c r="P77" s="60"/>
       <c r="Q77" s="60"/>
       <c r="R77" s="60"/>
     </row>
     <row r="78" spans="1:18">
+      <c r="A78" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="110">
+        <v>0.74969724899978907</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
       <c r="P78" s="60"/>
       <c r="Q78" s="60"/>
       <c r="R78" s="60"/>
     </row>
     <row r="79" spans="1:18">
+      <c r="A79" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B79" s="110">
+        <v>4.5180520614859114</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
       <c r="P79" s="60"/>
       <c r="Q79" s="60"/>
       <c r="R79" s="60"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A80" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="111">
+        <v>37</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
       <c r="P80" s="60"/>
       <c r="Q80" s="60"/>
       <c r="R80" s="60"/>
     </row>
     <row r="81" spans="1:18">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
       <c r="P81" s="60"/>
       <c r="Q81" s="60"/>
       <c r="R81" s="60"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
       <c r="P82" s="60"/>
       <c r="Q82" s="60"/>
       <c r="R82" s="60"/>
     </row>
     <row r="83" spans="1:18">
+      <c r="A83" s="112"/>
+      <c r="B83" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="F83" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
       <c r="P83" s="60"/>
       <c r="Q83" s="60"/>
       <c r="R83" s="60"/>
     </row>
     <row r="84" spans="1:18">
+      <c r="A84" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="110">
+        <v>3</v>
+      </c>
+      <c r="C84" s="110">
+        <v>2262.2648108272219</v>
+      </c>
+      <c r="D84" s="110">
+        <v>754.08827027574068</v>
+      </c>
+      <c r="E84" s="110">
+        <v>36.941942116288942</v>
+      </c>
+      <c r="F84" s="110">
+        <v>1.1724553119507271E-10</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
       <c r="P84" s="60"/>
       <c r="Q84" s="60"/>
       <c r="R84" s="60"/>
     </row>
     <row r="85" spans="1:18">
+      <c r="A85" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="110">
+        <v>33</v>
+      </c>
+      <c r="C85" s="110">
+        <v>673.62221619980426</v>
+      </c>
+      <c r="D85" s="110">
+        <v>20.412794430297097</v>
+      </c>
+      <c r="E85" s="110"/>
+      <c r="F85" s="110"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
       <c r="P85" s="60"/>
       <c r="Q85" s="60"/>
       <c r="R85" s="60"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A86" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="111">
+        <v>36</v>
+      </c>
+      <c r="C86" s="111">
+        <v>2935.8870270270263</v>
+      </c>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="111"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
       <c r="P86" s="60"/>
       <c r="Q86" s="60"/>
       <c r="R86" s="60"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
       <c r="P87" s="60"/>
       <c r="Q87" s="60"/>
       <c r="R87" s="60"/>
     </row>
     <row r="88" spans="1:18">
+      <c r="A88" s="112"/>
+      <c r="B88" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="E88" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="F88" s="112" t="s">
+        <v>203</v>
+      </c>
+      <c r="G88" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="H88" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="I88" s="112" t="s">
+        <v>206</v>
+      </c>
       <c r="P88" s="60"/>
       <c r="Q88" s="60"/>
       <c r="R88" s="60"/>
     </row>
     <row r="89" spans="1:18">
+      <c r="A89" s="110" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="110">
+        <v>84.10782310591668</v>
+      </c>
+      <c r="C89" s="110">
+        <v>17.083994564803312</v>
+      </c>
+      <c r="D89" s="110">
+        <v>4.9231942088764651</v>
+      </c>
+      <c r="E89" s="110">
+        <v>2.3127219550798458E-5</v>
+      </c>
+      <c r="F89" s="110">
+        <v>49.350174822282966</v>
+      </c>
+      <c r="G89" s="110">
+        <v>118.86547138955039</v>
+      </c>
+      <c r="H89" s="110">
+        <v>49.350174822282966</v>
+      </c>
+      <c r="I89" s="110">
+        <v>118.86547138955039</v>
+      </c>
       <c r="P89" s="60"/>
       <c r="Q89" s="60"/>
       <c r="R89" s="60"/>
     </row>
     <row r="90" spans="1:18">
+      <c r="A90" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="110">
+        <v>0.41194731930447848</v>
+      </c>
+      <c r="C90" s="110">
+        <v>0.10389288842141198</v>
+      </c>
+      <c r="D90" s="110">
+        <v>3.9651156644478998</v>
+      </c>
+      <c r="E90" s="110">
+        <v>3.7143955351002383E-4</v>
+      </c>
+      <c r="F90" s="110">
+        <v>0.20057564851491844</v>
+      </c>
+      <c r="G90" s="110">
+        <v>0.62331899009403857</v>
+      </c>
+      <c r="H90" s="110">
+        <v>0.20057564851491844</v>
+      </c>
+      <c r="I90" s="110">
+        <v>0.62331899009403857</v>
+      </c>
       <c r="P90" s="60"/>
       <c r="Q90" s="60"/>
       <c r="R90" s="60"/>
     </row>
     <row r="91" spans="1:18">
+      <c r="A91" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="110">
+        <v>-0.540204198466115</v>
+      </c>
+      <c r="C91" s="110">
+        <v>0.24257534881920975</v>
+      </c>
+      <c r="D91" s="110">
+        <v>-2.2269542271944816</v>
+      </c>
+      <c r="E91" s="110">
+        <v>3.2887954431833531E-2</v>
+      </c>
+      <c r="F91" s="110">
+        <v>-1.0337274564229069</v>
+      </c>
+      <c r="G91" s="110">
+        <v>-4.6680940509323143E-2</v>
+      </c>
+      <c r="H91" s="110">
+        <v>-1.0337274564229069</v>
+      </c>
+      <c r="I91" s="110">
+        <v>-4.6680940509323143E-2</v>
+      </c>
       <c r="P91" s="60"/>
       <c r="Q91" s="60"/>
       <c r="R91" s="60"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A92" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="111">
+        <v>-0.41190546920643939</v>
+      </c>
+      <c r="C92" s="111">
+        <v>0.17803578545287765</v>
+      </c>
+      <c r="D92" s="111">
+        <v>-2.3136105371100357</v>
+      </c>
+      <c r="E92" s="111">
+        <v>2.706103989251182E-2</v>
+      </c>
+      <c r="F92" s="111">
+        <v>-0.77412199820372751</v>
+      </c>
+      <c r="G92" s="111">
+        <v>-4.9688940209151211E-2</v>
+      </c>
+      <c r="H92" s="111">
+        <v>-0.77412199820372751</v>
+      </c>
+      <c r="I92" s="111">
+        <v>-4.9688940209151211E-2</v>
+      </c>
       <c r="P92" s="60"/>
       <c r="Q92" s="60"/>
       <c r="R92" s="60"/>
     </row>
     <row r="93" spans="1:18">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
       <c r="P93" s="60"/>
       <c r="Q93" s="60"/>
       <c r="R93" s="60"/>
     </row>
     <row r="94" spans="1:18">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
       <c r="P94" s="60"/>
       <c r="Q94" s="60"/>
       <c r="R94" s="60"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="60"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
       <c r="J95" s="60"/>
       <c r="P95" s="60"/>
       <c r="Q95" s="60"/>
@@ -37815,9 +38190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79F18D3-89BB-453A-9332-A1F10CAD1075}">
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -37849,6 +38222,9 @@
         <v>163</v>
       </c>
       <c r="G1" s="84"/>
+      <c r="H1" s="153" t="s">
+        <v>212</v>
+      </c>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -38412,7 +38788,10 @@
       </c>
       <c r="I23" s="151"/>
       <c r="J23" s="151"/>
-      <c r="K23" s="152"/>
+      <c r="K23" s="152">
+        <f>I41+I42*8.4+I43*5250+I44*10000+I45*0.534</f>
+        <v>424.86801453527801</v>
+      </c>
       <c r="L23" s="152"/>
     </row>
     <row r="24" spans="1:18">
@@ -38455,9 +38834,11 @@
       <c r="F25" s="91">
         <v>547</v>
       </c>
-      <c r="H25" s="80"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="H25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1">
       <c r="A26" s="89">
         <v>25</v>
       </c>
@@ -38476,7 +38857,6 @@
       <c r="F26" s="91">
         <v>460</v>
       </c>
-      <c r="H26" s="80"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="89">
@@ -38497,7 +38877,10 @@
       <c r="F27" s="91">
         <v>566</v>
       </c>
-      <c r="H27" s="80"/>
+      <c r="H27" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="113"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="89">
@@ -38518,7 +38901,12 @@
       <c r="F28" s="91">
         <v>577</v>
       </c>
-      <c r="H28" s="80"/>
+      <c r="H28" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="110">
+        <v>0.82382444220223328</v>
+      </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="89">
@@ -38539,7 +38927,12 @@
       <c r="F29" s="91">
         <v>631</v>
       </c>
-      <c r="H29" s="80"/>
+      <c r="H29" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="110">
+        <v>0.67868671156982074</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="89">
@@ -38560,7 +38953,12 @@
       <c r="F30" s="91">
         <v>574</v>
       </c>
-      <c r="H30" s="80"/>
+      <c r="H30" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="110">
+        <v>0.64879710334375751</v>
+      </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="89">
@@ -38581,9 +38979,14 @@
       <c r="F31" s="91">
         <v>534</v>
       </c>
-      <c r="H31" s="80"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="H31" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="110">
+        <v>66.306190426761503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1">
       <c r="A32" s="89">
         <v>31</v>
       </c>
@@ -38602,9 +39005,14 @@
       <c r="F32" s="91">
         <v>571</v>
       </c>
-      <c r="H32" s="80"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="111">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="89">
         <v>32</v>
       </c>
@@ -38623,9 +39031,8 @@
       <c r="F33" s="91">
         <v>554</v>
       </c>
-      <c r="H33" s="80"/>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1">
       <c r="A34" s="89">
         <v>33</v>
       </c>
@@ -38644,9 +39051,11 @@
       <c r="F34" s="91">
         <v>577</v>
       </c>
-      <c r="H34" s="80"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="89">
         <v>34</v>
       </c>
@@ -38665,9 +39074,24 @@
       <c r="F35" s="91">
         <v>628</v>
       </c>
-      <c r="H35" s="80"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35" s="112"/>
+      <c r="I35" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="K35" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="L35" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="M35" s="112" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="89">
         <v>35</v>
       </c>
@@ -38686,9 +39110,26 @@
       <c r="F36" s="91">
         <v>487</v>
       </c>
-      <c r="H36" s="80"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="110">
+        <v>4</v>
+      </c>
+      <c r="J36" s="110">
+        <v>399316.51094353851</v>
+      </c>
+      <c r="K36" s="110">
+        <v>99829.127735884627</v>
+      </c>
+      <c r="L36" s="110">
+        <v>22.706443872958449</v>
+      </c>
+      <c r="M36" s="110">
+        <v>3.9071674899552979E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="89">
         <v>36</v>
       </c>
@@ -38707,9 +39148,22 @@
       <c r="F37" s="91">
         <v>644</v>
       </c>
-      <c r="H37" s="80"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="110">
+        <v>43</v>
+      </c>
+      <c r="J37" s="110">
+        <v>189049.96822312821</v>
+      </c>
+      <c r="K37" s="110">
+        <v>4396.5108889099583</v>
+      </c>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" thickBot="1">
       <c r="A38" s="89">
         <v>37</v>
       </c>
@@ -38728,9 +39182,20 @@
       <c r="F38" s="91">
         <v>640</v>
       </c>
-      <c r="H38" s="80"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="111">
+        <v>47</v>
+      </c>
+      <c r="J38" s="111">
+        <v>588366.47916666674</v>
+      </c>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1">
       <c r="A39" s="89">
         <v>38</v>
       </c>
@@ -38750,7 +39215,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:16">
       <c r="A40" s="89">
         <v>39</v>
       </c>
@@ -38769,8 +39234,33 @@
       <c r="F40" s="91">
         <v>648</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40" s="112"/>
+      <c r="I40" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="J40" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="L40" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="M40" s="112" t="s">
+        <v>203</v>
+      </c>
+      <c r="N40" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="O40" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="P40" s="112" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="89">
         <v>40</v>
       </c>
@@ -38789,8 +39279,35 @@
       <c r="F41" s="91">
         <v>968</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" s="110" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="110">
+        <v>377.29114647367305</v>
+      </c>
+      <c r="J41" s="110">
+        <v>185.54119074744614</v>
+      </c>
+      <c r="K41" s="110">
+        <v>2.0334630006079459</v>
+      </c>
+      <c r="L41" s="110">
+        <v>4.8206757790625963E-2</v>
+      </c>
+      <c r="M41" s="110">
+        <v>3.1116744578565658</v>
+      </c>
+      <c r="N41" s="110">
+        <v>751.47061848948954</v>
+      </c>
+      <c r="O41" s="110">
+        <v>3.1116744578565658</v>
+      </c>
+      <c r="P41" s="110">
+        <v>751.47061848948954</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="89">
         <v>41</v>
       </c>
@@ -38809,8 +39326,35 @@
       <c r="F42" s="91">
         <v>587</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="110">
+        <v>-34.790149164432748</v>
+      </c>
+      <c r="J42" s="110">
+        <v>12.970201644938031</v>
+      </c>
+      <c r="K42" s="110">
+        <v>-2.6823136691949996</v>
+      </c>
+      <c r="L42" s="110">
+        <v>1.0332295318129722E-2</v>
+      </c>
+      <c r="M42" s="110">
+        <v>-60.947053644191179</v>
+      </c>
+      <c r="N42" s="110">
+        <v>-8.6332446846743167</v>
+      </c>
+      <c r="O42" s="110">
+        <v>-60.947053644191179</v>
+      </c>
+      <c r="P42" s="110">
+        <v>-8.6332446846743167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="89">
         <v>42</v>
       </c>
@@ -38829,8 +39373,35 @@
       <c r="F43" s="91">
         <v>699</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H43" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="110">
+        <v>-6.6588751786943554E-2</v>
+      </c>
+      <c r="J43" s="110">
+        <v>1.7221747918313348E-2</v>
+      </c>
+      <c r="K43" s="110">
+        <v>-3.8665501378134839</v>
+      </c>
+      <c r="L43" s="110">
+        <v>3.6842219898720224E-4</v>
+      </c>
+      <c r="M43" s="110">
+        <v>-0.10131971647087412</v>
+      </c>
+      <c r="N43" s="110">
+        <v>-3.1857787103012992E-2</v>
+      </c>
+      <c r="O43" s="110">
+        <v>-0.10131971647087412</v>
+      </c>
+      <c r="P43" s="110">
+        <v>-3.1857787103012992E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="89">
         <v>43</v>
       </c>
@@ -38849,8 +39420,35 @@
       <c r="F44" s="91">
         <v>632</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="I44" s="110">
+        <v>-2.4258888852597702E-3</v>
+      </c>
+      <c r="J44" s="110">
+        <v>3.3891743597613076E-3</v>
+      </c>
+      <c r="K44" s="110">
+        <v>-0.7157757694799215</v>
+      </c>
+      <c r="L44" s="110">
+        <v>0.47799892783039066</v>
+      </c>
+      <c r="M44" s="110">
+        <v>-9.2608103784133575E-3</v>
+      </c>
+      <c r="N44" s="110">
+        <v>4.4090326078938162E-3</v>
+      </c>
+      <c r="O44" s="110">
+        <v>-9.2608103784133575E-3</v>
+      </c>
+      <c r="P44" s="110">
+        <v>4.4090326078938162E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" thickBot="1">
       <c r="A45" s="89">
         <v>44</v>
       </c>
@@ -38869,8 +39467,35 @@
       <c r="F45" s="91">
         <v>591</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" s="111">
+        <v>1336.4493572600961</v>
+      </c>
+      <c r="J45" s="111">
+        <v>192.29814252595057</v>
+      </c>
+      <c r="K45" s="111">
+        <v>6.9498817809940245</v>
+      </c>
+      <c r="L45" s="111">
+        <v>1.5208382212552584E-8</v>
+      </c>
+      <c r="M45" s="111">
+        <v>948.64319330201124</v>
+      </c>
+      <c r="N45" s="111">
+        <v>1724.255521218181</v>
+      </c>
+      <c r="O45" s="111">
+        <v>948.64319330201124</v>
+      </c>
+      <c r="P45" s="111">
+        <v>1724.255521218181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="89">
         <v>45</v>
       </c>
@@ -38890,7 +39515,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:16">
       <c r="A47" s="89">
         <v>46</v>
       </c>
@@ -38910,7 +39535,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:16">
       <c r="A48" s="89">
         <v>47</v>
       </c>
@@ -39101,5 +39726,6 @@
     <mergeCell ref="K23:L23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>